--- a/ui-testsuite/src/main/resources/TestData/Order_DummyLine.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_DummyLine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="153">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -477,6 +477,15 @@
   </si>
   <si>
     <t>2016149696</t>
+  </si>
+  <si>
+    <t>1873609273</t>
+  </si>
+  <si>
+    <t>24/06/2016</t>
+  </si>
+  <si>
+    <t>0361918197</t>
   </si>
 </sst>
 </file>
@@ -487,7 +496,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +527,26 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1510,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="U2" t="s">
         <v>77</v>
@@ -1588,7 +1617,7 @@
         <v>5000000010</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AY2" t="s">
         <v>105</v>
@@ -1710,7 +1739,7 @@
         <v>99</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>127</v>
@@ -1788,7 +1817,7 @@
         <v>5000000010</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AY3" t="s">
         <v>105</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_DummyLine.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_DummyLine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="165">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -486,6 +486,42 @@
   </si>
   <si>
     <t>0361918197</t>
+  </si>
+  <si>
+    <t>7227267464</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>18/08/2016</t>
+  </si>
+  <si>
+    <t>6749007363</t>
+  </si>
+  <si>
+    <t>31/08/2016</t>
+  </si>
+  <si>
+    <t>7014343960</t>
+  </si>
+  <si>
+    <t>6751153102</t>
+  </si>
+  <si>
+    <t>8735182633</t>
+  </si>
+  <si>
+    <t>4501109159</t>
+  </si>
+  <si>
+    <t>9842066128</t>
+  </si>
+  <si>
+    <t>7306706519</t>
+  </si>
+  <si>
+    <t>4192190520</t>
   </si>
 </sst>
 </file>
@@ -496,7 +532,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +563,96 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1539,10 +1665,10 @@
         <v>99</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="U2" t="s">
         <v>77</v>
@@ -1617,7 +1743,7 @@
         <v>5000000010</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AY2" t="s">
         <v>105</v>
@@ -1739,10 +1865,10 @@
         <v>99</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="U3" t="s">
         <v>77</v>
@@ -1817,7 +1943,7 @@
         <v>5000000010</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AY3" t="s">
         <v>105</v>
